--- a/HW1_1042579_stats.xlsx
+++ b/HW1_1042579_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christos\Desktop\UCY\8th Semester\ΕΠΛ 452\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christos\Desktop\UCY\8th Semester\ΕΠΛ 425\Assignments\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D814DEC-81D6-4C61-813F-8616E411B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA442C0-9A42-4C5F-A97D-AAED02C49D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4FBDF248-171C-49AB-9707-0AF0456677F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4FBDF248-171C-49AB-9707-0AF0456677F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -259,13 +259,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>333.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.03</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>333.20000000000005</c:v>
@@ -348,13 +348,13 @@
                   <c:v>37084.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180347.64</c:v>
+                  <c:v>180.34764000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>37084.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180347.64</c:v>
+                  <c:v>18.034763999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,7 +453,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1554,17 +1553,17 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1578,26 +1577,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.93</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="C2">
         <v>333.1</v>
       </c>
       <c r="D2">
-        <f>SUM(B2+0.1)</f>
-        <v>1.03</v>
+        <v>193</v>
       </c>
       <c r="E2">
         <f>SUM(C2+0.1)</f>
         <v>333.20000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1605,16 +1603,16 @@
         <v>37084.1</v>
       </c>
       <c r="C3">
-        <v>180347.64</v>
+        <v>180.34764000000001</v>
       </c>
       <c r="D3">
         <v>37084.1</v>
       </c>
       <c r="E3">
-        <v>180347.64</v>
+        <v>18.034763999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>

--- a/HW1_1042579_stats.xlsx
+++ b/HW1_1042579_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christos\Desktop\UCY\8th Semester\ΕΠΛ 425\Assignments\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA442C0-9A42-4C5F-A97D-AAED02C49D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E177645-969F-40C9-B922-405A1267D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4FBDF248-171C-49AB-9707-0AF0456677F7}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{4FBDF248-171C-49AB-9707-0AF0456677F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
                   <c:v>37084.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.034763999999999</c:v>
+                  <c:v>180.34764000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1553,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1609,7 @@
         <v>37084.1</v>
       </c>
       <c r="E3">
-        <v>18.034763999999999</v>
+        <v>180.34764000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
